--- a/biology/Botanique/Deltana/Deltana.xlsx
+++ b/biology/Botanique/Deltana/Deltana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deltana est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Droits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Deltana est une variété enregistrée par l'Union Européenne :
 numéro de référence: 24343 ;
@@ -544,9 +558,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mieux connue sous l'appellation commerciale Delbard Celeste[1], c'est une création Delbard 2010 (France).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mieux connue sous l'appellation commerciale Delbard Celeste, c'est une création Delbard 2010 (France).
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Issue du croisement (Golden Delicious x Grive Rouge) x Florina.
 </t>
@@ -606,7 +624,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison tardive, jusqu'aux gelées.
 Elle n'est pas autofertile.
@@ -638,11 +658,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle possède une résistance génétique à la tavelure.
-Comme la Granny Smith, sa maturité est prévue fin octobre[2].
-Elle se conserve jusque début mars[3]
+Comme la Granny Smith, sa maturité est prévue fin octobre.
+Elle se conserve jusque début mars
 </t>
         </is>
       </c>
